--- a/CapStatement/AssBank.xlsx
+++ b/CapStatement/AssBank.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Python\MyNotebooks\CapStatement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FC8DE80-08EB-4B3B-A2EB-D9E335E316D8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F651EF-B377-4DC0-AAAA-C8522B78B165}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="3" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="510" yWindow="2535" windowWidth="22725" windowHeight="10665" activeTab="3" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
     <sheet name="profiles" sheetId="2" r:id="rId2"/>
-    <sheet name="resources" sheetId="3" r:id="rId3"/>
-    <sheet name="interactions" sheetId="5" r:id="rId4"/>
-    <sheet name="sps" sheetId="4" r:id="rId5"/>
+    <sheet name="all profiles" sheetId="6" r:id="rId3"/>
+    <sheet name="resources" sheetId="3" r:id="rId4"/>
+    <sheet name="interactions" sheetId="5" r:id="rId5"/>
+    <sheet name="sps" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="97">
   <si>
     <t>Value</t>
   </si>
@@ -106,9 +107,6 @@
     <t>security</t>
   </si>
   <si>
-    <t>For general security consideration refer to the [Security and Privacy Considerations](https://argonautproject.github.io/questionnaire/index.html#security-and-privacy-considerations) in the US Core Implementation Guide.'</t>
-  </si>
-  <si>
     <t>Resource</t>
   </si>
   <si>
@@ -302,9 +300,6 @@
   </si>
   <si>
     <t>Base</t>
-  </si>
-  <si>
-    <t>This section outlines conformance requirements for the Argonaut Questionnaire Assessment-Bank Server which is responsible for storing Questionnaires and providing responses to the requests submitted by the  Form Author/Editor and Provider EHRs. The Argonaut Questionnaire Profile and the various interactions outlined in this guide are the RESTful artifacts and interactions that need to be supported. Note that the Argonaut Profiles identify the structural constraints, terminology bindings and invariants and the individual Argonaut SearchParameter resources define the definitions, comparators, modifiers and usage constraints.</t>
   </si>
   <si>
     <t>The Argonaut questionnaire Assessment-Bank **SHALL**:
@@ -316,6 +311,27 @@
   </si>
   <si>
     <t>MAY</t>
+  </si>
+  <si>
+    <t>This section outlines conformance requirements for the Argonaut Questionnaire Assessment-Bank Server.  It is responsible for storing Questionnaires and providing responses to the requests submitted by the  Form Author/Editor and Provider EHRs.   The Argonaut Questionnaire Profile and the various interactions outlined in this guide are the RESTful artifacts and interactions that it supports.   Note that the Argonaut Profiles identify the structural constraints, terminology bindings and invariants and the individual Argonaut SearchParameter resources define the definitions, comparators, modifiers and usage constraints.</t>
+  </si>
+  <si>
+    <t>ValueSet</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Argonaut Questionnaire Profile</t>
+  </si>
+  <si>
+    <t>Argonaut Questionnaire Contained ValueSet Profile</t>
+  </si>
+  <si>
+    <t>For general security consideration refer to the [Security and Privacy Considerations](https://argonautproject.github.io/questionnaire/index.html#security-and-privacy-considerations).</t>
+  </si>
+  <si>
+    <t>searchInclude</t>
   </si>
 </sst>
 </file>
@@ -367,7 +383,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -685,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F3286-55C1-40D0-93FC-C97EF26956B8}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -740,15 +758,15 @@
         <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -761,51 +779,139 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B139EF60-0633-48C5-B394-C56F006BD6B3}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="94" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59587246-89B4-43F8-94C0-DC15795DF5BB}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="89" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -813,7 +919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -821,7 +927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -829,7 +935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -837,7 +943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -850,12 +956,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACB4CFA-AAEF-4FC6-A49B-107CEE80A317}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,49 +972,53 @@
     <col min="4" max="4" width="15.140625" customWidth="1"/>
     <col min="5" max="6" width="17.42578125" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
         <v>83</v>
-      </c>
-      <c r="B1" t="s">
-        <v>84</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
       </c>
       <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
         <v>68</v>
       </c>
-      <c r="E1" t="s">
-        <v>69</v>
-      </c>
       <c r="F1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="H1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -917,12 +1027,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E2E280-092F-4777-8984-8212A8DAB750}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,15 +1043,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
         <v>85</v>
-      </c>
-      <c r="B1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -949,7 +1059,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -957,7 +1067,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -965,7 +1075,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -973,23 +1083,23 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -997,7 +1107,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
@@ -1005,10 +1115,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1016,7 +1126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399C2ED-EDEB-47AB-8C1E-1290512B1D2F}">
   <dimension ref="A1:P16"/>
   <sheetViews>
@@ -1034,816 +1144,816 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="F1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>36</v>
-      </c>
-      <c r="P1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" t="s">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
         <v>45</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
       </c>
       <c r="H3" t="str">
         <f>A3&amp;"."&amp;C3</f>
         <v>Questionnaire.url</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ref="H4:H16" si="0">A4&amp;"."&amp;C4</f>
         <v>Questionnaire.status</v>
       </c>
       <c r="I4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
         <v>48</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" t="s">
-        <v>49</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
         <v>Questionnaire.title</v>
       </c>
       <c r="I5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
         <v>Questionnaire.publisher</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
         <v>Questionnaire.version</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
         <v>53</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" t="s">
-        <v>54</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
         <v>Questionnaire.context-type-value</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
         <v>39</v>
-      </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
-        <v>40</v>
       </c>
       <c r="H9" t="str">
         <f>A9&amp;".id"</f>
         <v>QuestionnaireResponse.id</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>55</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
         <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" t="s">
-        <v>57</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
         <v>QuestionnaireResponse.questionnaire</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
         <v>QuestionnaireResponse.patient</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v>QuestionnaireResponse.context</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v>QuestionnaireResponse.status</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
         <v>QuestionnaireResponse.author</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
         <v>QuestionnaireResponse.source</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" t="s">
         <v>64</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" t="s">
-        <v>65</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
         <v>Patient.birthdate</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="P16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/CapStatement/AssBank.xlsx
+++ b/CapStatement/AssBank.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Python\MyNotebooks\CapStatement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83F651EF-B377-4DC0-AAAA-C8522B78B165}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C70BB8-AD59-4071-99BB-EF9740DF4E41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="2535" windowWidth="22725" windowHeight="10665" activeTab="3" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="-24465" yWindow="1785" windowWidth="22725" windowHeight="10665" activeTab="3" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
     <sheet name="profiles" sheetId="2" r:id="rId2"/>
     <sheet name="all profiles" sheetId="6" r:id="rId3"/>
     <sheet name="resources" sheetId="3" r:id="rId4"/>
-    <sheet name="interactions" sheetId="5" r:id="rId5"/>
-    <sheet name="sps" sheetId="4" r:id="rId6"/>
+    <sheet name="ops" sheetId="7" r:id="rId5"/>
+    <sheet name="interactions" sheetId="5" r:id="rId6"/>
+    <sheet name="sps" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="106">
   <si>
     <t>Value</t>
   </si>
@@ -276,9 +277,6 @@
   </si>
   <si>
     <t>history-type</t>
-  </si>
-  <si>
-    <t>…todo…</t>
   </si>
   <si>
     <t>updateCreate</t>
@@ -332,6 +330,36 @@
   </si>
   <si>
     <t>searchInclude</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>conf_Questionnaire</t>
+  </si>
+  <si>
+    <t>conf_ValueSet</t>
+  </si>
+  <si>
+    <t>combos</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>context-type-version</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>author,source,context</t>
+  </si>
+  <si>
+    <t>combo_conf</t>
+  </si>
+  <si>
+    <t>-  A server *SHALL* be capable of supporting  the[ Argonaut Questionnaire ValueSet Profile](http://fhir.org/guides/argonaut-questionnaire/StructureDefinition/argo-questionnaire-valueset) as a contained resource with the Argonaut Questionnaire Profile.</t>
   </si>
 </sst>
 </file>
@@ -734,7 +762,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -758,7 +786,7 @@
         <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -766,7 +794,7 @@
         <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -782,7 +810,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +826,7 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -812,13 +840,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -826,7 +854,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -867,7 +895,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
         <v>27</v>
@@ -881,10 +909,10 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -895,7 +923,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
         <v>40</v>
@@ -960,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACB4CFA-AAEF-4FC6-A49B-107CEE80A317}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,10 +1005,10 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" t="s">
         <v>82</v>
-      </c>
-      <c r="B1" t="s">
-        <v>83</v>
       </c>
       <c r="C1" t="s">
         <v>21</v>
@@ -992,24 +1020,24 @@
         <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G1" t="s">
         <v>70</v>
       </c>
       <c r="H1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>80</v>
+      <c r="C2" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>66</v>
@@ -1028,97 +1056,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E2E280-092F-4777-8984-8212A8DAB750}">
-  <dimension ref="A1:B10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BD6ECC-0BFD-4409-A93E-9F9ABC9C3BE7}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
         <v>84</v>
-      </c>
-      <c r="B1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1127,11 +1082,117 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399C2ED-EDEB-47AB-8C1E-1290512B1D2F}">
-  <dimension ref="A1:P16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E2E280-092F-4777-8984-8212A8DAB750}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399C2ED-EDEB-47AB-8C1E-1290512B1D2F}">
+  <dimension ref="A1:R16"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1140,9 +1201,10 @@
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1159,7 +1221,7 @@
         <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G1" t="s">
         <v>27</v>
@@ -1191,8 +1253,14 @@
       <c r="P1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -1241,8 +1309,11 @@
       <c r="P2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -1292,8 +1363,11 @@
       <c r="P3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>40</v>
       </c>
@@ -1343,8 +1417,14 @@
       <c r="P4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" t="s">
+        <v>100</v>
+      </c>
+      <c r="R4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -1394,8 +1474,14 @@
       <c r="P5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -1445,8 +1531,14 @@
       <c r="P6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -1497,7 +1589,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1548,7 +1640,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -1598,8 +1690,11 @@
       <c r="P9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -1649,8 +1744,11 @@
       <c r="P10" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -1700,8 +1798,14 @@
       <c r="P11" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" t="s">
+        <v>103</v>
+      </c>
+      <c r="R11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -1752,7 +1856,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -1802,8 +1906,14 @@
       <c r="P13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13" t="s">
+        <v>100</v>
+      </c>
+      <c r="R13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -1854,7 +1964,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -1905,9 +2015,9 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>

--- a/CapStatement/AssBank.xlsx
+++ b/CapStatement/AssBank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Python\MyNotebooks\CapStatement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C70BB8-AD59-4071-99BB-EF9740DF4E41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC6BB7C-F04C-4C57-8EE1-267297E9D59A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24465" yWindow="1785" windowWidth="22725" windowHeight="10665" activeTab="3" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="-27075" yWindow="2130" windowWidth="25680" windowHeight="10665" activeTab="3" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="106">
   <si>
     <t>Value</t>
   </si>
@@ -341,18 +341,6 @@
     <t>conf_ValueSet</t>
   </si>
   <si>
-    <t>combos</t>
-  </si>
-  <si>
-    <t>any</t>
-  </si>
-  <si>
-    <t>context-type-version</t>
-  </si>
-  <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>author,source,context</t>
   </si>
   <si>
@@ -360,6 +348,18 @@
   </si>
   <si>
     <t>-  A server *SHALL* be capable of supporting  the[ Argonaut Questionnaire ValueSet Profile](http://fhir.org/guides/argonaut-questionnaire/StructureDefinition/argo-questionnaire-valueset) as a contained resource with the Argonaut Questionnaire Profile.</t>
+  </si>
+  <si>
+    <t>combo_pairs</t>
+  </si>
+  <si>
+    <t>context-type,version</t>
+  </si>
+  <si>
+    <t>questionnaire,patient,context,status,author,source</t>
+  </si>
+  <si>
+    <t>title,publisher,version,context-type-value</t>
   </si>
 </sst>
 </file>
@@ -988,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACB4CFA-AAEF-4FC6-A49B-107CEE80A317}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,7 +1037,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>66</v>
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,7 +1192,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1202,6 +1202,7 @@
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="45.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -1254,10 +1255,10 @@
         <v>36</v>
       </c>
       <c r="Q1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="R1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -1309,9 +1310,6 @@
       <c r="P2" t="s">
         <v>43</v>
       </c>
-      <c r="Q2" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1363,9 +1361,6 @@
       <c r="P3" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1418,7 +1413,7 @@
         <v>43</v>
       </c>
       <c r="Q4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="R4" t="s">
         <v>5</v>
@@ -1532,7 +1527,7 @@
         <v>43</v>
       </c>
       <c r="Q6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="R6" t="s">
         <v>15</v>
@@ -1690,9 +1685,6 @@
       <c r="P9" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1744,9 +1736,6 @@
       <c r="P10" t="s">
         <v>43</v>
       </c>
-      <c r="Q10" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1799,7 +1788,7 @@
         <v>43</v>
       </c>
       <c r="Q11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="R11" t="s">
         <v>5</v>
@@ -1907,7 +1896,7 @@
         <v>43</v>
       </c>
       <c r="Q13" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="R13" t="s">
         <v>5</v>

--- a/CapStatement/AssBank.xlsx
+++ b/CapStatement/AssBank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Python\MyNotebooks\CapStatement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC6BB7C-F04C-4C57-8EE1-267297E9D59A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB749AF0-CA68-4AEE-A924-75456D94522B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27075" yWindow="2130" windowWidth="25680" windowHeight="10665" activeTab="3" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="345" yWindow="2190" windowWidth="25680" windowHeight="10665" activeTab="4" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="107">
   <si>
     <t>Value</t>
   </si>
@@ -353,13 +353,16 @@
     <t>combo_pairs</t>
   </si>
   <si>
-    <t>context-type,version</t>
-  </si>
-  <si>
     <t>questionnaire,patient,context,status,author,source</t>
   </si>
   <si>
     <t>title,publisher,version,context-type-value</t>
+  </si>
+  <si>
+    <t>context-type-value,version</t>
+  </si>
+  <si>
+    <t>definition</t>
   </si>
 </sst>
 </file>
@@ -988,7 +991,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACB4CFA-AAEF-4FC6-A49B-107CEE80A317}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -1057,22 +1060,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BD6ECC-0BFD-4409-A93E-9F9ABC9C3BE7}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>96</v>
       </c>
       <c r="B1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" t="s">
         <v>81</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1192,7 +1198,7 @@
   <dimension ref="A1:R16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,7 +1419,7 @@
         <v>43</v>
       </c>
       <c r="Q4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R4" t="s">
         <v>5</v>
@@ -1527,7 +1533,7 @@
         <v>43</v>
       </c>
       <c r="Q6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="R6" t="s">
         <v>15</v>
@@ -1896,7 +1902,7 @@
         <v>43</v>
       </c>
       <c r="Q13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R13" t="s">
         <v>5</v>

--- a/CapStatement/AssBank.xlsx
+++ b/CapStatement/AssBank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Python\MyNotebooks\CapStatement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB749AF0-CA68-4AEE-A924-75456D94522B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B776E6-DECF-4FD2-BF01-DE1A46FF3629}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="2190" windowWidth="25680" windowHeight="10665" activeTab="4" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="-28920" yWindow="-615" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -1062,7 +1062,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BD6ECC-0BFD-4409-A93E-9F9ABC9C3BE7}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1197,8 +1197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399C2ED-EDEB-47AB-8C1E-1290512B1D2F}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,6 +1207,7 @@
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="45.42578125" bestFit="1" customWidth="1"/>
   </cols>
